--- a/input.xlsx
+++ b/input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Desktop\PSYC_2700\Translator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Desktop\PSYC_2700\Translator\PhenomeTranslator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86450F62-712F-4E7B-934E-09A68402090B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18D59C2-51A0-4D45-A0C8-0A155535B5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5112" yWindow="2880" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="3228" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ladder</t>
   </si>
@@ -49,18 +49,6 @@
   </si>
   <si>
     <t>ship</t>
-  </si>
-  <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>pandemic</t>
-  </si>
-  <si>
-    <t>hey</t>
-  </si>
-  <si>
-    <t>honeymoon</t>
   </si>
 </sst>
 </file>
@@ -378,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,26 +414,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Desktop\PSYC_2700\Translator\PhenomeTranslator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Desktop\PSYC_2700\PhonemeTranslator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18D59C2-51A0-4D45-A0C8-0A155535B5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC1D6B3-C96D-479E-93B8-9531C1997155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="3228" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ladder</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>ship</t>
+  </si>
+  <si>
+    <t>hello</t>
   </si>
 </sst>
 </file>
@@ -366,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -414,6 +417,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
